--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAD1CC6-8ECE-4421-9AC4-F6669E9C6545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19AD8E-7611-44EC-93EA-56F964A575EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3315" yWindow="1395" windowWidth="15315" windowHeight="8910" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -93,26 +93,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑥</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑧</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑦</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カテゴリー一覧　</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -155,272 +135,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会社のカレンダーを表示</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑪⑫</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑪</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑫</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>③</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑤</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑨⑩</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・勤務地管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑥</t>
-    </r>
-    <rPh sb="1" eb="6">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・カレンダー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑧</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑨</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑩</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員と勤務地の紐づけ、契約形態の追加、変更、削除</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ケイヤクケイタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員の勤務地の追加、変更</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員の追加、変更、削除</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・社員管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑤</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・社員勤務地管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑦</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -442,13 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル管理</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社員管理</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -469,13 +176,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル入力</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自己評価入力</t>
     <rPh sb="0" eb="2">
       <t>ジコ</t>
@@ -514,6 +214,315 @@
   </si>
   <si>
     <t>・ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・給与管理</t>
+    <rPh sb="1" eb="5">
+      <t>キュウヨカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・タイトル管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・社員管理</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・社員選択</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・戻る</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社評価入力</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価項目管理</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社の評価項目と自己評価項目を管理する画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給与テーブルの管理を行う画面</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員の管理を行う画面</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本給と評価得点を表示したい社員を選択する画面</t>
+    <rPh sb="0" eb="3">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[社員選択]画面で選択した[社員]に[会社評価]を追加する画面</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員選択画面で選択した[社員]に[自己評価]を追加する画面</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員選択で選択された社員の基本給と評価得点を表示</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認画面の内容をCSVファイルにして出力</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・自己評価入力</t>
+    <rPh sb="1" eb="5">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・強制終了</t>
+    <rPh sb="1" eb="3">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・確認</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・強制終了</t>
+    <rPh sb="1" eb="5">
+      <t>キョウセイシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・CSV出力</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・会社評価入力</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -685,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -788,13 +797,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,25 +991,76 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,76 +1111,37 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,14 +1165,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>4311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>102577</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>113783</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>234462</xdr:rowOff>
     </xdr:to>
@@ -1080,8 +1189,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8460872" y="6290811"/>
-          <a:ext cx="1724" cy="955516"/>
+          <a:off x="9928412" y="6122723"/>
+          <a:ext cx="1724" cy="936121"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1404,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:BO39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1418,180 +1527,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="66" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
       <c r="U1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="66" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="68">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="54">
         <v>45145</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
       <c r="U2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="66" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="54">
+        <v>45146</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
     </row>
     <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="18" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="42"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="59"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="25"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="45"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="62"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1602,17 +1703,19 @@
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1622,7 +1725,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1643,12 +1746,12 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1658,7 +1761,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="U9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -1670,18 +1773,18 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1691,7 +1794,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1706,12 +1809,12 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1729,11 +1832,9 @@
       <c r="AE11" s="6"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1742,22 +1843,15 @@
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="Q13" s="8"/>
-      <c r="S13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="52"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="69"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1765,8 +1859,8 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
@@ -1775,18 +1869,18 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="12"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="55"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1795,26 +1889,26 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="Q16" s="8"/>
       <c r="U16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -1824,70 +1918,61 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="14"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
       <c r="Q19" s="8"/>
-      <c r="S19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="42"/>
-    </row>
-    <row r="20" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="70"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="59"/>
+    </row>
+    <row r="20" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
       <c r="R20" s="12"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="62"/>
       <c r="Y20" s="23"/>
     </row>
-    <row r="21" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="70"/>
+    <row r="21" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="70"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="70"/>
+    <row r="23" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="70"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P24" s="4"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="19"/>
@@ -1895,269 +1980,288 @@
       <c r="AD24" s="4"/>
       <c r="AS24" s="22"/>
     </row>
-    <row r="25" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="70"/>
       <c r="Q25" s="8"/>
-      <c r="S25" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36"/>
-      <c r="AC25" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="36"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
+      <c r="AH25" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AO25" s="24"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="33"/>
-    </row>
-    <row r="26" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+    </row>
+    <row r="26" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="70"/>
       <c r="R26" s="15"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="15"/>
+      <c r="AA26" s="12"/>
       <c r="AB26" s="15"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="39"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AO26" s="24"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
       <c r="AU26" s="22"/>
     </row>
-    <row r="27" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I27" s="70"/>
+    <row r="27" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U27" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z27" s="8"/>
-    </row>
-    <row r="28" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I28" s="70"/>
+      <c r="AM27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z28" s="8"/>
-    </row>
-    <row r="29" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="70"/>
+      <c r="AM28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U29" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="79"/>
+    <row r="30" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R30" s="33"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="35"/>
       <c r="AA30" s="16"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
       <c r="AF30" s="16"/>
-    </row>
-    <row r="31" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="70"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="70"/>
+      <c r="AU30" s="81"/>
+      <c r="AV30" s="81"/>
+      <c r="AW30" s="81"/>
+      <c r="AX30" s="81"/>
+      <c r="AY30" s="81"/>
+    </row>
+    <row r="31" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J31" s="30"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="34"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
       <c r="Z31" s="8"/>
-      <c r="AC31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="36"/>
-      <c r="AL31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="36"/>
-      <c r="AU31" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="35"/>
-      <c r="AX31" s="35"/>
-      <c r="AY31" s="36"/>
-    </row>
-    <row r="32" spans="4:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="70"/>
+      <c r="AH31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="38"/>
+      <c r="AW31" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="81"/>
+      <c r="BH31" s="81"/>
+      <c r="BI31" s="81"/>
+      <c r="BJ31" s="79"/>
+      <c r="BK31" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL31" s="74"/>
+      <c r="BM31" s="74"/>
+      <c r="BN31" s="74"/>
+      <c r="BO31" s="77"/>
+    </row>
+    <row r="32" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="12"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
       <c r="AR32" s="15"/>
       <c r="AS32" s="15"/>
       <c r="AT32" s="15"/>
-      <c r="AU32" s="37"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="38"/>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="39"/>
-    </row>
-    <row r="33" spans="9:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-    </row>
-    <row r="34" spans="9:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="70"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="70"/>
-    </row>
-    <row r="38" spans="9:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="80"/>
+      <c r="BK32" s="75"/>
+      <c r="BL32" s="76"/>
+      <c r="BM32" s="76"/>
+      <c r="BN32" s="76"/>
+      <c r="BO32" s="78"/>
+    </row>
+    <row r="33" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="31"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
       <c r="P38" s="32"/>
       <c r="S38" s="30"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-    </row>
-    <row r="39" spans="9:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+    </row>
+    <row r="39" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="AC31:AG32"/>
-    <mergeCell ref="AL31:AP32"/>
-    <mergeCell ref="AU31:AY32"/>
+  <mergeCells count="22">
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
+    <mergeCell ref="AH25:AL26"/>
+    <mergeCell ref="AH31:AL32"/>
+    <mergeCell ref="AW31:BA32"/>
+    <mergeCell ref="BK31:BO32"/>
     <mergeCell ref="T38:X39"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
@@ -2168,17 +2272,8 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
-    <mergeCell ref="T31:X32"/>
     <mergeCell ref="K38:O39"/>
     <mergeCell ref="K31:O32"/>
-    <mergeCell ref="AP25:AT26"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
-    <mergeCell ref="AC25:AG26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19AD8E-7611-44EC-93EA-56F964A575EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84AD28B-59E0-4E66-80BC-6514FE88F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -166,16 +166,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員選択</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自己評価入力</t>
     <rPh sb="0" eb="2">
       <t>ジコ</t>
@@ -224,13 +214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・タイトル管理</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・社員管理</t>
     <rPh sb="1" eb="3">
       <t>シャイン</t>
@@ -241,16 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・社員選択</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・戻る</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
@@ -456,22 +429,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確認画面の内容をCSVファイルにして出力</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・自己評価入力</t>
     <rPh sb="1" eb="5">
       <t>ジコヒョウカ</t>
@@ -522,6 +479,90 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価実施</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・評価項目管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・評価実施</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価出力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・カテゴリー一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・終了</t>
+    <rPh sb="1" eb="3">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・保存</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認画面の内容をCSVファイルで出力</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVファイルで出力したいデータ(確認画面で保存)を選択</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -861,9 +902,7 @@
     </border>
     <border diagonalDown="1">
       <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -874,9 +913,7 @@
     </border>
     <border diagonalUp="1">
       <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -891,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1055,72 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,85 +1166,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,6 +1239,72 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D0F893-190B-31DE-0666-3971664D109A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16954499" y="7307035"/>
+          <a:ext cx="1728108" cy="544285"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>評価実施に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1513,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
-  <dimension ref="A1:BO39"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1527,125 +1621,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="52" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="52" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="54">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="76">
         <v>45145</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
       <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="52" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="54">
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="76">
         <v>45146</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="59"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="18"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
@@ -1653,46 +1747,46 @@
       <c r="K6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="30"/>
-      <c r="T6" s="57" t="s">
+      <c r="T6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="59"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="28"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="25"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="62"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="47"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1703,7 +1797,7 @@
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1725,7 +1819,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1751,7 +1845,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1773,7 +1867,7 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1784,7 +1878,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1794,7 +1888,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1814,7 +1908,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1834,7 +1928,7 @@
     <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1846,12 +1940,12 @@
       <c r="Q13" s="8"/>
       <c r="S13" s="30"/>
       <c r="T13" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="69"/>
+        <v>23</v>
+      </c>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="54"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1869,11 +1963,11 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="12"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="72"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1889,7 +1983,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1903,7 +1997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1918,10 +2012,10 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1931,48 +2025,48 @@
       <c r="K18" s="11"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="14"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="24"/>
-      <c r="T19" s="57" t="s">
+      <c r="T19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-    </row>
-    <row r="20" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="20" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
       <c r="R20" s="12"/>
       <c r="S20" s="27"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="62"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
       <c r="Y20" s="23"/>
     </row>
-    <row r="21" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P24" s="4"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="19"/>
@@ -1980,7 +2074,7 @@
       <c r="AD24" s="4"/>
       <c r="AS24" s="22"/>
     </row>
-    <row r="25" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1988,34 +2082,35 @@
       <c r="Q25" s="8"/>
       <c r="S25" s="30"/>
       <c r="T25" s="36" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="38"/>
       <c r="AH25" s="36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI25" s="37"/>
       <c r="AJ25" s="37"/>
       <c r="AK25" s="37"/>
       <c r="AL25" s="38"/>
       <c r="AM25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AO25" s="24"/>
-      <c r="AP25" s="82"/>
-      <c r="AQ25" s="82"/>
-      <c r="AR25" s="82"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="82"/>
-    </row>
-    <row r="26" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+    </row>
+    <row r="26" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="15"/>
       <c r="S26" s="13"/>
       <c r="T26" s="39"/>
@@ -2041,43 +2136,47 @@
         <v>6</v>
       </c>
       <c r="AO26" s="24"/>
-      <c r="AP26" s="82"/>
-      <c r="AQ26" s="82"/>
-      <c r="AR26" s="82"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="82"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
       <c r="AU26" s="22"/>
     </row>
-    <row r="27" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q27" s="8"/>
       <c r="U27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AM27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q28" s="8"/>
       <c r="U28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z28" s="8"/>
       <c r="AM28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q29" s="8"/>
+      <c r="U29" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U29" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q30" s="8"/>
       <c r="R30" s="33"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -2090,65 +2189,42 @@
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
       <c r="AF30" s="16"/>
-      <c r="AU30" s="81"/>
-      <c r="AV30" s="81"/>
-      <c r="AW30" s="81"/>
-      <c r="AX30" s="81"/>
-      <c r="AY30" s="81"/>
-    </row>
-    <row r="31" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="30"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="34"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
+      <c r="Q31" s="8"/>
+      <c r="U31" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Z31" s="8"/>
       <c r="AH31" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI31" s="37"/>
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
       <c r="AL31" s="38"/>
       <c r="AW31" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX31" s="37"/>
       <c r="AY31" s="37"/>
       <c r="AZ31" s="37"/>
       <c r="BA31" s="38"/>
-      <c r="BB31" s="81"/>
-      <c r="BH31" s="81"/>
-      <c r="BI31" s="81"/>
-      <c r="BJ31" s="79"/>
-      <c r="BK31" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL31" s="74"/>
-      <c r="BM31" s="74"/>
-      <c r="BN31" s="74"/>
-      <c r="BO31" s="77"/>
-    </row>
-    <row r="32" spans="4:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="83"/>
-      <c r="V32" s="83"/>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
+    </row>
+    <row r="32" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="Q32" s="8"/>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
@@ -2184,85 +2260,129 @@
       <c r="BG32" s="15"/>
       <c r="BH32" s="15"/>
       <c r="BI32" s="15"/>
-      <c r="BJ32" s="80"/>
-      <c r="BK32" s="75"/>
-      <c r="BL32" s="76"/>
-      <c r="BM32" s="76"/>
-      <c r="BN32" s="76"/>
-      <c r="BO32" s="78"/>
-    </row>
-    <row r="33" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+    </row>
+    <row r="33" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q33" s="8"/>
       <c r="AI33" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL33" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q34" s="8"/>
       <c r="AI34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AX34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q35" s="8"/>
+      <c r="AI35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q36" s="8"/>
+      <c r="AI36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J38" s="31"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="8"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="38"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="60"/>
+    </row>
+    <row r="39" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="80"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="62"/>
+      <c r="AJ39" s="62"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="63"/>
+    </row>
+    <row r="40" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AI35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AI36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J38" s="31"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="32"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-    </row>
-    <row r="39" spans="10:64" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
+    <row r="42" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U43" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
-    <mergeCell ref="AH25:AL26"/>
-    <mergeCell ref="AH31:AL32"/>
-    <mergeCell ref="AW31:BA32"/>
-    <mergeCell ref="BK31:BO32"/>
-    <mergeCell ref="T38:X39"/>
+    <mergeCell ref="K38:O39"/>
+    <mergeCell ref="K31:O32"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:T1"/>
@@ -2272,8 +2392,17 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K38:O39"/>
-    <mergeCell ref="K31:O32"/>
+    <mergeCell ref="AH25:AL26"/>
+    <mergeCell ref="AH31:AL32"/>
+    <mergeCell ref="AW31:BA32"/>
+    <mergeCell ref="AH38:AL39"/>
+    <mergeCell ref="T38:X39"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84AD28B-59E0-4E66-80BC-6514FE88F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989A5BA-11C5-40CD-AF59-9D217E25EEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -146,16 +146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>給与管理</t>
-    <rPh sb="0" eb="2">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社員管理</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -257,34 +247,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会社の評価項目と自己評価項目を管理する画面</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>給与テーブルの管理を行う画面</t>
     <rPh sb="0" eb="2">
       <t>キュウヨ</t>
@@ -563,6 +525,166 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給与確認</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社評価管理</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自己評価管理</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社の評価項目を管理する画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自己評価項目を管理する画面</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・会社評価管理</t>
+    <rPh sb="1" eb="3">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・自己評価管理</t>
+    <rPh sb="1" eb="5">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社評価管理か自己評価管理かどちらに遷移するか選ぶ画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>評価出力画面で選択した社員の基本給と評価得点を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -571,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,15 +742,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -928,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,221 +1069,215 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,6 +1412,356 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>101958</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE14A6D-A36E-4169-8663-88D22ADE812A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9785261" y="2878965"/>
+          <a:ext cx="6898" cy="1658155"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>106710</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>15039</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E000621-5658-4581-B88E-9226E017BEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9767065" y="4572000"/>
+          <a:ext cx="1011224" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>149674</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>151398</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>230151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E6E756-692C-4423-9302-8A76EAECEB0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13770424" y="9552214"/>
+          <a:ext cx="1724" cy="964937"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>147126</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>136921</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>208359</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A581BD6E-49F4-4441-B782-647E84129F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13851220" y="9286875"/>
+          <a:ext cx="263639" cy="208359"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>144577</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236512DB-58D2-4947-9D73-1B144A2A6270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13585032" y="9292829"/>
+          <a:ext cx="263639" cy="208359"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>129153</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C94C30-A933-4621-B18A-3FDBE3CFDA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9852240" y="9088949"/>
+          <a:ext cx="5328" cy="1424068"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>128577</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>234234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>36906</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>234234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0582A40-3269-4C5E-BDE0-766CADECB045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9805977" y="10473609"/>
+          <a:ext cx="1013229" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1607,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW46" sqref="AW46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1620,119 +2077,119 @@
     <col min="8" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="74" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="74" t="s">
+    <row r="2" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="76">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="69">
         <v>45145</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
       <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
+    <row r="3" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-    </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="76">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="69">
         <v>45146</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-    </row>
-    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="6" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
         <v>10</v>
       </c>
@@ -1740,10 +2197,10 @@
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="29"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="36" t="s">
         <v>11</v>
       </c>
@@ -1751,37 +2208,37 @@
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="49"/>
-      <c r="P6" s="18"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="30"/>
+      <c r="S6" s="28"/>
       <c r="T6" s="42" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
       <c r="W6" s="43"/>
       <c r="X6" s="44"/>
     </row>
-    <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="45"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="21"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="50"/>
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="52"/>
-      <c r="P7" s="17"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="21"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="45"/>
       <c r="U7" s="46"/>
       <c r="V7" s="46"/>
@@ -1795,9 +2252,9 @@
       <c r="AD7" s="6"/>
       <c r="AE7" s="6"/>
     </row>
-    <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1819,7 +2276,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1828,11 +2285,8 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +2299,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1861,13 +2315,10 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1878,7 +2329,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1888,7 +2339,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1898,7 +2349,7 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
     </row>
-    <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1908,7 +2359,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1925,56 +2376,95 @@
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
     </row>
-    <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="Q12" s="8"/>
-      <c r="T12" s="9"/>
-    </row>
-    <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S12" s="28"/>
+      <c r="T12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="54"/>
+      <c r="AW12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="38"/>
+    </row>
+    <row r="13" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="8"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="54"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-    </row>
-    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="41"/>
+    </row>
+    <row r="14" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-    </row>
-    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="U14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1983,75 +2473,111 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="Q16" s="8"/>
       <c r="U16" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
       <c r="Q18" s="8"/>
+      <c r="U18" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="14"/>
+      <c r="E19" s="12"/>
       <c r="Q19" s="8"/>
-      <c r="S19" s="24"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
       <c r="X19" s="44"/>
+      <c r="AW19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="38"/>
     </row>
     <row r="20" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="27"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="45"/>
       <c r="U20" s="46"/>
       <c r="V20" s="46"/>
       <c r="W20" s="46"/>
       <c r="X20" s="47"/>
-      <c r="Y20" s="23"/>
+      <c r="Y20" s="21"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="40"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="41"/>
     </row>
     <row r="21" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2059,20 +2585,26 @@
       <c r="U22" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AX22" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P24" s="4"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="19"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AS24" s="22"/>
+      <c r="AS24" s="20"/>
     </row>
     <row r="25" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
@@ -2080,25 +2612,25 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="Q25" s="8"/>
-      <c r="S25" s="30"/>
+      <c r="S25" s="28"/>
       <c r="T25" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
       <c r="X25" s="38"/>
       <c r="AH25" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" s="37"/>
       <c r="AJ25" s="37"/>
       <c r="AK25" s="37"/>
       <c r="AL25" s="38"/>
       <c r="AM25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO25" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="AO25" s="22"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
@@ -2111,22 +2643,22 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="11"/>
       <c r="T26" s="39"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
       <c r="X26" s="41"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="13"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="39"/>
       <c r="AI26" s="40"/>
       <c r="AJ26" s="40"/>
@@ -2135,22 +2667,22 @@
       <c r="AM26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AO26" s="24"/>
+      <c r="AO26" s="22"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="22"/>
+      <c r="AU26" s="20"/>
     </row>
     <row r="27" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q27" s="8"/>
       <c r="U27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AM27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2160,58 +2692,58 @@
       </c>
       <c r="Z28" s="8"/>
       <c r="AM28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q29" s="8"/>
       <c r="U29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="8"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
     </row>
     <row r="31" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J31" s="30"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="77"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
       <c r="N31" s="78"/>
       <c r="O31" s="78"/>
-      <c r="P31" s="34"/>
+      <c r="P31" s="32"/>
       <c r="Q31" s="8"/>
       <c r="U31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z31" s="8"/>
       <c r="AH31" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI31" s="37"/>
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
       <c r="AL31" s="38"/>
       <c r="AW31" s="36" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AX31" s="37"/>
       <c r="AY31" s="37"/>
@@ -2225,164 +2757,228 @@
       <c r="N32" s="78"/>
       <c r="O32" s="78"/>
       <c r="Q32" s="8"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="11"/>
       <c r="AH32" s="39"/>
       <c r="AI32" s="40"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="41"/>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="15"/>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="13"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="11"/>
       <c r="AW32" s="39"/>
       <c r="AX32" s="40"/>
       <c r="AY32" s="40"/>
       <c r="AZ32" s="40"/>
       <c r="BA32" s="41"/>
-      <c r="BB32" s="12"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="15"/>
-      <c r="BG32" s="15"/>
-      <c r="BH32" s="15"/>
-      <c r="BI32" s="15"/>
-      <c r="BJ32" s="15"/>
-      <c r="BK32" s="15"/>
-    </row>
-    <row r="33" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
+      <c r="BF32" s="13"/>
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="13"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="13"/>
+      <c r="BK32" s="13"/>
+    </row>
+    <row r="33" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q33" s="8"/>
       <c r="AI33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q34" s="8"/>
       <c r="AI34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q35" s="8"/>
       <c r="AI35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q36" s="8"/>
       <c r="AI36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J38" s="31"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="32"/>
+      <c r="AI37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J38" s="29"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="30"/>
       <c r="Q38" s="8"/>
-      <c r="S38" s="30"/>
+      <c r="S38" s="28"/>
       <c r="T38" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
       <c r="X38" s="38"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="60"/>
-    </row>
-    <row r="39" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="13"/>
+      <c r="AV38" s="34"/>
+      <c r="AW38" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX38" s="71"/>
+      <c r="AY38" s="71"/>
+      <c r="AZ38" s="71"/>
+      <c r="BA38" s="72"/>
+      <c r="BB38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="11"/>
       <c r="T39" s="39"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
       <c r="W39" s="40"/>
       <c r="X39" s="41"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="80"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="63"/>
-    </row>
-    <row r="40" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="35"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="74"/>
+      <c r="BA39" s="75"/>
+    </row>
+    <row r="40" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U41" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U42" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="10:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AW44" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="38"/>
+    </row>
+    <row r="45" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="39"/>
+      <c r="AX45" s="40"/>
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="41"/>
+    </row>
+    <row r="46" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AX46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AX47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AX48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="50:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AX49" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K38:O39"/>
-    <mergeCell ref="K31:O32"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:T1"/>
@@ -2392,17 +2988,22 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
+    <mergeCell ref="AW44:BA45"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T12:X13"/>
+    <mergeCell ref="T19:X20"/>
+    <mergeCell ref="AW38:BA39"/>
+    <mergeCell ref="T38:X39"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="K38:O39"/>
+    <mergeCell ref="K31:O32"/>
+    <mergeCell ref="AW12:BA13"/>
+    <mergeCell ref="AW19:BA20"/>
     <mergeCell ref="AH25:AL26"/>
     <mergeCell ref="AH31:AL32"/>
     <mergeCell ref="AW31:BA32"/>
-    <mergeCell ref="AH38:AL39"/>
-    <mergeCell ref="T38:X39"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989A5BA-11C5-40CD-AF59-9D217E25EEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0933B2-518F-46BD-A28F-1D82738C50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -115,22 +115,6 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※①のような番号はカテゴリーを押した際の行き先</t>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>イキサキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -848,7 +832,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1035,13 +1019,39 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1160,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,42 +1262,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,6 +1288,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,14 +1366,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>275854</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:colOff>94014</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
@@ -1374,8 +1390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16954499" y="7307035"/>
-          <a:ext cx="1728108" cy="544285"/>
+          <a:off x="17195718" y="7235288"/>
+          <a:ext cx="1757796" cy="536863"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2066,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
   <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW46" sqref="AW46"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2078,172 +2094,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="67" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="69">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="47">
         <v>45145</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="1" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+    </row>
+    <row r="3" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+    </row>
+    <row r="4" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="47">
+        <v>45146</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+    </row>
+    <row r="6" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-    </row>
-    <row r="4" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="69">
-        <v>45146</v>
-      </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-    </row>
-    <row r="6" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="16"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="K6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="28"/>
-      <c r="T6" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44"/>
+      <c r="T6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
     </row>
     <row r="7" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="26"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="23"/>
       <c r="S7" s="19"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="47"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2254,7 +2267,7 @@
     </row>
     <row r="8" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2276,7 +2289,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -2299,7 +2312,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2318,7 +2331,7 @@
     </row>
     <row r="10" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2329,7 +2342,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -2339,7 +2352,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -2359,7 +2372,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -2379,37 +2392,37 @@
     <row r="12" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="Q12" s="8"/>
       <c r="S12" s="28"/>
-      <c r="T12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="54"/>
-      <c r="AW12" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="38"/>
+      <c r="T12" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="66"/>
+      <c r="AW12" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="69"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
@@ -2434,11 +2447,11 @@
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
       <c r="AV13" s="11"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="41"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="53"/>
     </row>
     <row r="14" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="9"/>
@@ -2453,10 +2466,10 @@
       <c r="O14" s="2"/>
       <c r="Q14" s="8"/>
       <c r="U14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2487,10 +2500,10 @@
       <c r="I16" s="9"/>
       <c r="Q16" s="8"/>
       <c r="U16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2508,7 +2521,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2521,37 +2534,37 @@
       <c r="K18" s="9"/>
       <c r="Q18" s="8"/>
       <c r="U18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="12"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="44"/>
-      <c r="AW19" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX19" s="37"/>
-      <c r="AY19" s="37"/>
-      <c r="AZ19" s="37"/>
-      <c r="BA19" s="38"/>
+      <c r="T19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56"/>
+      <c r="AW19" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="49"/>
+      <c r="BA19" s="50"/>
     </row>
     <row r="20" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
       <c r="R20" s="10"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="47"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="59"/>
       <c r="Y20" s="21"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
@@ -2565,19 +2578,19 @@
       <c r="AT20" s="13"/>
       <c r="AU20" s="13"/>
       <c r="AV20" s="11"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="41"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="53"/>
     </row>
     <row r="21" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2592,10 +2605,10 @@
     <row r="23" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2613,22 +2626,22 @@
       <c r="G25" s="2"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="28"/>
-      <c r="T25" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
-      <c r="AH25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="38"/>
+      <c r="T25" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="50"/>
+      <c r="AH25" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="50"/>
       <c r="AM25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO25" s="22"/>
       <c r="AP25" s="3"/>
@@ -2645,11 +2658,11 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="13"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="41"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="53"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="10"/>
@@ -2659,11 +2672,11 @@
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="41"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="53"/>
       <c r="AM26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2678,11 +2691,11 @@
     <row r="27" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q27" s="8"/>
       <c r="U27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AM27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2692,13 +2705,13 @@
       </c>
       <c r="Z28" s="8"/>
       <c r="AM28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q29" s="8"/>
       <c r="U29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z29" s="8"/>
     </row>
@@ -2708,7 +2721,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
@@ -2732,23 +2745,25 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="8"/>
       <c r="U31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z31" s="8"/>
-      <c r="AH31" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="38"/>
-      <c r="AW31" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX31" s="37"/>
-      <c r="AY31" s="37"/>
-      <c r="AZ31" s="37"/>
-      <c r="BA31" s="38"/>
+      <c r="AH31" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="50"/>
+      <c r="AV31" s="80"/>
+      <c r="AW31" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="50"/>
+      <c r="BJ31" s="34"/>
     </row>
     <row r="32" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K32" s="78"/>
@@ -2764,11 +2779,11 @@
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="41"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="53"/>
       <c r="AM32" s="10"/>
       <c r="AN32" s="13"/>
       <c r="AO32" s="13"/>
@@ -2778,12 +2793,12 @@
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
       <c r="AU32" s="13"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="40"/>
-      <c r="AY32" s="40"/>
-      <c r="AZ32" s="40"/>
-      <c r="BA32" s="41"/>
+      <c r="AV32" s="79"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
+      <c r="BA32" s="53"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="13"/>
@@ -2792,16 +2807,16 @@
       <c r="BG32" s="13"/>
       <c r="BH32" s="13"/>
       <c r="BI32" s="13"/>
-      <c r="BJ32" s="13"/>
+      <c r="BJ32" s="35"/>
       <c r="BK32" s="13"/>
     </row>
     <row r="33" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q33" s="8"/>
       <c r="AI33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX33" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AX33" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2810,31 +2825,31 @@
         <v>6</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q35" s="8"/>
       <c r="AI35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q36" s="8"/>
       <c r="AI36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q37" s="8"/>
       <c r="AI37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2847,23 +2862,23 @@
       <c r="P38" s="30"/>
       <c r="Q38" s="8"/>
       <c r="S38" s="28"/>
-      <c r="T38" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38"/>
+      <c r="T38" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="50"/>
       <c r="AV38" s="34"/>
       <c r="AW38" s="70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX38" s="71"/>
       <c r="AY38" s="71"/>
       <c r="AZ38" s="71"/>
       <c r="BA38" s="72"/>
       <c r="BB38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2874,11 +2889,11 @@
       <c r="O39" s="76"/>
       <c r="R39" s="13"/>
       <c r="S39" s="11"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="41"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="53"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
@@ -2911,7 +2926,7 @@
     </row>
     <row r="40" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2921,22 +2936,22 @@
     </row>
     <row r="42" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AW44" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX44" s="37"/>
-      <c r="AY44" s="37"/>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="38"/>
+      <c r="AW44" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX44" s="49"/>
+      <c r="AY44" s="49"/>
+      <c r="AZ44" s="49"/>
+      <c r="BA44" s="50"/>
     </row>
     <row r="45" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AK45" s="13"/>
@@ -2951,15 +2966,15 @@
       <c r="AT45" s="13"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="11"/>
-      <c r="AW45" s="39"/>
-      <c r="AX45" s="40"/>
-      <c r="AY45" s="40"/>
-      <c r="AZ45" s="40"/>
-      <c r="BA45" s="41"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="52"/>
+      <c r="AY45" s="52"/>
+      <c r="AZ45" s="52"/>
+      <c r="BA45" s="53"/>
     </row>
     <row r="46" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2969,25 +2984,16 @@
     </row>
     <row r="48" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="50:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
     <mergeCell ref="AW44:BA45"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="K6:O7"/>
@@ -3004,9 +3010,19 @@
     <mergeCell ref="AH25:AL26"/>
     <mergeCell ref="AH31:AL32"/>
     <mergeCell ref="AW31:BA32"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0933B2-518F-46BD-A28F-1D82738C50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5BC40-C511-41BC-B520-0C673691E554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -140,19 +140,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自己評価入力</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>確認</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -181,13 +168,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・給与管理</t>
-    <rPh sb="1" eb="5">
-      <t>キュウヨカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・社員管理</t>
     <rPh sb="1" eb="3">
       <t>シャイン</t>
@@ -205,19 +185,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>会社評価入力</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>評価項目管理</t>
     <rPh sb="0" eb="2">
       <t>ヒョウカ</t>
@@ -513,16 +480,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>給与確認</t>
-    <rPh sb="0" eb="2">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>会社評価管理</t>
     <rPh sb="0" eb="4">
       <t>カイシャヒョウカ</t>
@@ -669,6 +626,40 @@
     <t>結果</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社評価</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自己評価</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・給与テーブル</t>
+    <rPh sb="1" eb="3">
+      <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給与テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>キュウヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1024,23 +1015,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
     </border>
     <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
@@ -1051,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,6 +1147,99 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,98 +1276,11 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1423,7 +1416,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>評価実施に戻る</a:t>
+            <a:t>評価実施</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1780,6 +1773,72 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>242456</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>60616</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7749E940-9FF8-46B9-829E-8C0F76AB3E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13005956" y="6234546"/>
+          <a:ext cx="1757796" cy="536863"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会社評価</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2082,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
   <dimension ref="A1:BK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2094,169 +2153,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45145</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47">
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78">
         <v>45146</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="6" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="16"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="28"/>
-      <c r="T6" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56"/>
+      <c r="T6" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="26"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="23"/>
       <c r="S7" s="19"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="47"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2267,7 +2326,7 @@
     </row>
     <row r="8" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2289,7 +2348,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -2312,7 +2371,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2331,7 +2390,7 @@
     </row>
     <row r="10" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2342,7 +2401,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -2352,7 +2411,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -2372,7 +2431,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -2392,37 +2451,37 @@
     <row r="12" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="Q12" s="8"/>
       <c r="S12" s="28"/>
-      <c r="T12" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
-      <c r="AW12" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="50"/>
+      <c r="T12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="54"/>
+      <c r="AW12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="38"/>
     </row>
     <row r="13" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="69"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
@@ -2447,11 +2506,11 @@
       <c r="AT13" s="13"/>
       <c r="AU13" s="13"/>
       <c r="AV13" s="11"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52"/>
-      <c r="BA13" s="53"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="41"/>
     </row>
     <row r="14" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E14" s="9"/>
@@ -2466,10 +2525,10 @@
       <c r="O14" s="2"/>
       <c r="Q14" s="8"/>
       <c r="U14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2500,10 +2559,10 @@
       <c r="I16" s="9"/>
       <c r="Q16" s="8"/>
       <c r="U16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2521,7 +2580,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2534,37 +2593,37 @@
       <c r="K18" s="9"/>
       <c r="Q18" s="8"/>
       <c r="U18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="12"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="54" t="s">
+      <c r="T19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56"/>
-      <c r="AW19" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="49"/>
-      <c r="BA19" s="50"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="44"/>
+      <c r="AW19" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX19" s="37"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="38"/>
     </row>
     <row r="20" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="8"/>
       <c r="R20" s="10"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
       <c r="Y20" s="21"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
@@ -2578,19 +2637,19 @@
       <c r="AT20" s="13"/>
       <c r="AU20" s="13"/>
       <c r="AV20" s="11"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="52"/>
-      <c r="BA20" s="53"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="40"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="41"/>
     </row>
     <row r="21" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX21" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2605,10 +2664,10 @@
     <row r="23" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2626,22 +2685,22 @@
       <c r="G25" s="2"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="28"/>
-      <c r="T25" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="50"/>
-      <c r="AH25" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="50"/>
+      <c r="T25" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
+      <c r="AH25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="38"/>
       <c r="AM25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO25" s="22"/>
       <c r="AP25" s="3"/>
@@ -2658,11 +2717,11 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="13"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="53"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="11"/>
       <c r="AA26" s="10"/>
@@ -2672,11 +2731,11 @@
       <c r="AE26" s="13"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="53"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="41"/>
       <c r="AM26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2691,11 +2750,11 @@
     <row r="27" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q27" s="8"/>
       <c r="U27" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z27" s="8"/>
       <c r="AM27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2705,15 +2764,17 @@
       </c>
       <c r="Z28" s="8"/>
       <c r="AM28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q29" s="8"/>
       <c r="U29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Z29" s="8"/>
+      <c r="AX29" s="81"/>
+      <c r="AY29" s="82"/>
     </row>
     <row r="30" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q30" s="8"/>
@@ -2721,7 +2782,7 @@
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
       <c r="U30" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
@@ -2734,43 +2795,44 @@
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
+      <c r="AY30" s="80"/>
     </row>
     <row r="31" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="28"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
       <c r="P31" s="32"/>
       <c r="Q31" s="8"/>
       <c r="U31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z31" s="8"/>
-      <c r="AH31" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="50"/>
-      <c r="AV31" s="80"/>
-      <c r="AW31" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="50"/>
+      <c r="AH31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="38"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="38"/>
       <c r="BJ31" s="34"/>
     </row>
     <row r="32" spans="4:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
       <c r="Q32" s="8"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
@@ -2779,11 +2841,11 @@
       <c r="AE32" s="13"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="53"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="41"/>
       <c r="AM32" s="10"/>
       <c r="AN32" s="13"/>
       <c r="AO32" s="13"/>
@@ -2793,12 +2855,12 @@
       <c r="AS32" s="13"/>
       <c r="AT32" s="13"/>
       <c r="AU32" s="13"/>
-      <c r="AV32" s="79"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="52"/>
-      <c r="AY32" s="52"/>
-      <c r="AZ32" s="52"/>
-      <c r="BA32" s="53"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="39"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="41"/>
       <c r="BB32" s="10"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="13"/>
@@ -2813,10 +2875,10 @@
     <row r="33" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q33" s="8"/>
       <c r="AI33" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AX33" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2825,75 +2887,75 @@
         <v>6</v>
       </c>
       <c r="AX34" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q35" s="8"/>
       <c r="AI35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q36" s="8"/>
       <c r="AI36" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AX36" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q37" s="8"/>
       <c r="AI37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="29"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
       <c r="P38" s="30"/>
       <c r="Q38" s="8"/>
       <c r="S38" s="28"/>
-      <c r="T38" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="50"/>
+      <c r="T38" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="38"/>
       <c r="AV38" s="34"/>
-      <c r="AW38" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX38" s="71"/>
-      <c r="AY38" s="71"/>
-      <c r="AZ38" s="71"/>
-      <c r="BA38" s="72"/>
+      <c r="AW38" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX38" s="59"/>
+      <c r="AY38" s="59"/>
+      <c r="AZ38" s="59"/>
+      <c r="BA38" s="60"/>
       <c r="BB38" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
       <c r="R39" s="13"/>
       <c r="S39" s="11"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="53"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
@@ -2918,15 +2980,15 @@
       <c r="AT39" s="13"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="35"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="74"/>
-      <c r="AY39" s="74"/>
-      <c r="AZ39" s="74"/>
-      <c r="BA39" s="75"/>
+      <c r="AW39" s="61"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="63"/>
     </row>
     <row r="40" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2936,22 +2998,22 @@
     </row>
     <row r="42" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U42" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U43" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AW44" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX44" s="49"/>
-      <c r="AY44" s="49"/>
-      <c r="AZ44" s="49"/>
-      <c r="BA44" s="50"/>
+      <c r="AW44" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="38"/>
     </row>
     <row r="45" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AK45" s="13"/>
@@ -2966,15 +3028,15 @@
       <c r="AT45" s="13"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="11"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="52"/>
-      <c r="AY45" s="52"/>
-      <c r="AZ45" s="52"/>
-      <c r="BA45" s="53"/>
+      <c r="AW45" s="39"/>
+      <c r="AX45" s="40"/>
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="41"/>
     </row>
     <row r="46" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX46" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2984,16 +3046,25 @@
     </row>
     <row r="48" spans="10:54" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX48" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="50:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AX49" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
     <mergeCell ref="AW44:BA45"/>
     <mergeCell ref="B6:F7"/>
     <mergeCell ref="K6:O7"/>
@@ -3010,15 +3081,6 @@
     <mergeCell ref="AH25:AL26"/>
     <mergeCell ref="AH31:AL32"/>
     <mergeCell ref="AW31:BA32"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
